--- a/tests/eg-valid.xlsx
+++ b/tests/eg-valid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/surround/VocExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jamie\surround\VocExcel\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F7FB40-7A12-A540-A7FB-C76856E6FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A96358-349B-411A-B450-E5BC660D9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="500" windowWidth="36180" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22845" yWindow="0" windowWidth="22740" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="273">
   <si>
     <t>When was this vocabulary first created?</t>
   </si>
@@ -964,6 +964,15 @@
 https://linked.data.gov.au/def/induration-style/ferruginous_hardpan,
 https://linked.data.gov.au/def/induration-style/ferruginous_nodules,
 https://linked.data.gov.au/def/induration-style/ferruginous_moderately_cemented</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>https://linked.data.gov.au/org/des</t>
+  </si>
+  <si>
+    <t>Department of Environment and Science, Queensland Government</t>
   </si>
 </sst>
 </file>
@@ -1488,23 +1497,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="83.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="78.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="83.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -1625,10 +1634,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>132</v>
       </c>
@@ -1653,18 +1662,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>145</v>
       </c>
@@ -1739,7 +1748,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>266</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
@@ -1785,7 +1794,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>148</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>149</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>150</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>152</v>
       </c>
@@ -1862,7 +1871,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>153</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>154</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>155</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>156</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>157</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>159</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>160</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>161</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>162</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>163</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>164</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>165</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>166</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>168</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>169</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>170</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>172</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>173</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>174</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>175</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>176</v>
       </c>
@@ -2222,7 +2231,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>32</v>
       </c>
@@ -2240,16 +2249,23 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{2820524D-8787-9645-B3A8-35DF9A50FDAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2261,30 +2277,30 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="86.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
@@ -2306,7 +2322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
@@ -2317,7 +2333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
@@ -2339,7 +2355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
@@ -2350,7 +2366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -2361,7 +2377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +2388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2383,7 +2399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>51</v>
       </c>
@@ -2394,7 +2410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>132</v>
       </c>
@@ -2405,14 +2421,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -2423,7 +2439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -2434,7 +2450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -2445,7 +2461,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -2467,7 +2483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
@@ -2478,7 +2494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>92</v>
       </c>
@@ -2489,7 +2505,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
@@ -2500,14 +2516,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>32</v>
       </c>
@@ -2515,7 +2531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
@@ -2526,7 +2542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -2537,7 +2553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
@@ -2548,7 +2564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>25</v>
       </c>
@@ -2568,23 +2584,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="16" customWidth="1"/>
     <col min="3" max="3" width="47" style="16" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="62.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -2598,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -2626,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>40</v>
       </c>
@@ -2640,7 +2656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -2654,7 +2670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2668,7 +2684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2682,7 +2698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
@@ -2693,7 +2709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
@@ -2704,10 +2720,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>51</v>
       </c>
@@ -2721,7 +2737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>132</v>
       </c>
@@ -2735,18 +2751,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +2788,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>82</v>
       </c>
@@ -2783,7 +2799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>83</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>84</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>86</v>
       </c>
@@ -2827,7 +2843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>32</v>
       </c>
@@ -2845,11 +2861,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A16" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -2860,6 +2871,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2867,24 +2890,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="46" style="3" customWidth="1"/>
     <col min="4" max="4" width="74" style="4" customWidth="1"/>
-    <col min="5" max="5" width="57.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -2898,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -2912,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +2949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -2940,7 +2963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -2954,7 +2977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -2968,7 +2991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -2982,7 +3005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -2996,7 +3019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3007,10 +3030,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -3024,7 +3047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>132</v>
       </c>
@@ -3035,18 +3058,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -3072,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -3092,7 +3115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -3107,7 +3130,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -3124,7 +3147,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -3138,7 +3161,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
@@ -3152,7 +3175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -3169,7 +3192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -3187,11 +3210,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -3199,30 +3217,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3244,7 +3274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3255,7 +3285,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -3266,7 +3296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3275,6 +3305,17 @@
       </c>
       <c r="C6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3284,6 +3325,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{B6AF8116-1FA4-41BF-B3A1-3BB58C3B2B24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3298,13 +3340,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -3312,7 +3354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3320,7 +3362,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
